--- a/data-raw/spring_phenology.xlsx
+++ b/data-raw/spring_phenology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\FE_review\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48784F13-04A5-4793-8DD1-AC799429F60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336FF1B1-C11C-43D1-98C7-283A7EFF39B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1400,7 +1400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2431"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
@@ -86503,8 +86503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
